--- a/biology/Médecine/Mesure_subjective/Mesure_subjective.xlsx
+++ b/biology/Médecine/Mesure_subjective/Mesure_subjective.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mesure subjective repose sur le jugement subjectif d'un individu confronté au phénomène mesuré.
 Les mesures subjectives sont par exemple utilisées en milieu hospitalier pour évaluer la douleur ressentie par les patients.
-Elles peuvent également être mobilisées pour analyser l'interaction entre une personne et un système informatique[1].
+Elles peuvent également être mobilisées pour analyser l'interaction entre une personne et un système informatique.
 </t>
         </is>
       </c>
